--- a/Examples/68Bus_MedInertia_LocalMode.xlsx
+++ b/Examples/68Bus_MedInertia_LocalMode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6CD708-D46B-4334-928F-A424F8CB32B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4A4927-5E86-4B00-8CC3-BA23CBA188DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -3293,7 +3293,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="14">
         <v>150</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="14">
         <v>150</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="14">
         <v>150</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="14">
         <v>150</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="14">
         <v>150</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="14">
         <v>150</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="14">
         <v>150</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="14">
         <v>150</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="14">
         <v>150</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="14">
         <v>150</v>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="14">
         <v>150</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="14">
         <v>150</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="14">
         <v>150</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="14">
         <v>150</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="14">
         <v>150</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="14">
         <v>150</v>
